--- a/experiment/linear/ex9_1_10/compare/C-Estacionario/ex9_1_10_C-Estacionario.xlsx
+++ b/experiment/linear/ex9_1_10/compare/C-Estacionario/ex9_1_10_C-Estacionario.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Optimize_Method</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>SOS1</t>
+  </si>
+  <si>
+    <t>Product_Mode</t>
+  </si>
+  <si>
+    <t>LOCALLY_SOLVED</t>
   </si>
 </sst>
 </file>
@@ -427,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -488,13 +494,13 @@
         <v>0.0</v>
       </c>
       <c r="E2">
-        <v>0.000283831</v>
+        <v>0.00029628</v>
       </c>
       <c r="F2">
-        <v>0.018978261</v>
+        <v>0.01628703</v>
       </c>
       <c r="G2">
-        <v>0.0005413011204399434</v>
+        <v>0.0005126685623611551</v>
       </c>
       <c r="H2">
         <v>1777</v>
@@ -529,13 +535,13 @@
         <v>0.0</v>
       </c>
       <c r="E3">
-        <v>0.0019602</v>
+        <v>0.00195624</v>
       </c>
       <c r="F3">
-        <v>0.01125486</v>
+        <v>0.01178469</v>
       </c>
       <c r="G3">
-        <v>0.0025621238809034907</v>
+        <v>0.002833600783645656</v>
       </c>
       <c r="H3">
         <v>2152</v>
@@ -554,6 +560,47 @@
       </c>
       <c r="M3">
         <v>-664.87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>0.0</v>
+      </c>
+      <c r="E4">
+        <v>0.00394875</v>
+      </c>
+      <c r="F4">
+        <v>0.00962001</v>
+      </c>
+      <c r="G4">
+        <v>0.005086831985743381</v>
+      </c>
+      <c r="H4">
+        <v>5447</v>
+      </c>
+      <c r="I4">
+        <v>0.1609039306640625</v>
+      </c>
+      <c r="J4">
+        <v>50.81</v>
+      </c>
+      <c r="K4">
+        <v>17.8</v>
+      </c>
+      <c r="L4">
+        <v>126.75</v>
+      </c>
+      <c r="M4">
+        <v>163.24</v>
       </c>
     </row>
   </sheetData>
